--- a/data/trans_orig/DCD_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>127837</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>108421</v>
+        <v>108550</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>147131</v>
+        <v>149399</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2563205569199137</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2173904884493259</v>
+        <v>0.2176493566703954</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.295005913381401</v>
+        <v>0.2995544323064084</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>385</v>
@@ -762,19 +762,19 @@
         <v>245254</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>226313</v>
+        <v>224697</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>267868</v>
+        <v>266754</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3932993480132388</v>
+        <v>0.3932993480132387</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3629248096608328</v>
+        <v>0.3603341227227194</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4295643069880895</v>
+        <v>0.4277782795494977</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>526</v>
@@ -783,19 +783,19 @@
         <v>373091</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>343132</v>
+        <v>347406</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>402854</v>
+        <v>404586</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3324283525095593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3057349589374361</v>
+        <v>0.3095427036008988</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3589472134755708</v>
+        <v>0.3604912119507238</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>370902</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>351608</v>
+        <v>349340</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>390318</v>
+        <v>390189</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7436794430800863</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.704994086618599</v>
+        <v>0.7004455676935917</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7826095115506742</v>
+        <v>0.7823506433296049</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>476</v>
@@ -833,19 +833,19 @@
         <v>378326</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>355712</v>
+        <v>356826</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>397267</v>
+        <v>398883</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.606700651986761</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5704356930119113</v>
+        <v>0.5722217204505023</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6370751903391673</v>
+        <v>0.6396658772772809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>790</v>
@@ -854,19 +854,19 @@
         <v>749229</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>719466</v>
+        <v>717734</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>779188</v>
+        <v>774914</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6675716474904408</v>
+        <v>0.6675716474904407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6410527865244293</v>
+        <v>0.6395087880492764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6942650410625643</v>
+        <v>0.690457296399101</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>141854</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121080</v>
+        <v>120353</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>163228</v>
+        <v>162812</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1477431005960307</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1261066304003159</v>
+        <v>0.1253502568295378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1700049895059774</v>
+        <v>0.169571876819591</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>538</v>
@@ -979,19 +979,19 @@
         <v>329655</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>303947</v>
+        <v>303787</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>355305</v>
+        <v>357766</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.295429828022525</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2723908679880445</v>
+        <v>0.2722476275259439</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.318417090049274</v>
+        <v>0.3206219044592478</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>712</v>
@@ -1000,19 +1000,19 @@
         <v>471509</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>438454</v>
+        <v>438171</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>506223</v>
+        <v>508317</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2271252033525199</v>
+        <v>0.2271252033525198</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.211202705316965</v>
+        <v>0.211066343204055</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2438469242157183</v>
+        <v>0.244855667564338</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>818283</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>796909</v>
+        <v>797325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>839057</v>
+        <v>839784</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8522568994039694</v>
+        <v>0.8522568994039695</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8299950104940227</v>
+        <v>0.830428123180409</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8738933695996841</v>
+        <v>0.8746497431704624</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1069</v>
@@ -1050,19 +1050,19 @@
         <v>786194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>760544</v>
+        <v>758083</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>811902</v>
+        <v>812062</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.704570171977475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.681582909950726</v>
+        <v>0.6793780955407521</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7276091320119558</v>
+        <v>0.727752372474056</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1805</v>
@@ -1071,19 +1071,19 @@
         <v>1604477</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1569763</v>
+        <v>1567669</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1637532</v>
+        <v>1637815</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7728747966474802</v>
+        <v>0.77287479664748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7561530757842816</v>
+        <v>0.755144332435662</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7887972946830352</v>
+        <v>0.788933656795945</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>103722</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87928</v>
+        <v>87370</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>123170</v>
+        <v>125090</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09911568414821252</v>
+        <v>0.09911568414821251</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08402291612666012</v>
+        <v>0.08348978858170855</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1176995091828385</v>
+        <v>0.1195342968006132</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>376</v>
@@ -1196,19 +1196,19 @@
         <v>236754</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>213304</v>
+        <v>215495</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>258152</v>
+        <v>263825</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2259873762506017</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.203603766759457</v>
+        <v>0.2056949937237826</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2464123487924985</v>
+        <v>0.2518277903782851</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>503</v>
@@ -1217,19 +1217,19 @@
         <v>340476</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>308354</v>
+        <v>310877</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>372804</v>
+        <v>373467</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1625867407341014</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.147247660754686</v>
+        <v>0.1484524966811258</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1780239810434589</v>
+        <v>0.1783407571593305</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>942757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>923309</v>
+        <v>921389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>958551</v>
+        <v>959109</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9008843158517875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8823004908171613</v>
+        <v>0.8804657031993869</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9159770838733399</v>
+        <v>0.9165102114182915</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1140</v>
@@ -1267,19 +1267,19 @@
         <v>810888</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>789490</v>
+        <v>783817</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>834338</v>
+        <v>832147</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7740126237493983</v>
+        <v>0.7740126237493985</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7535876512075015</v>
+        <v>0.748172209621715</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7963962332405433</v>
+        <v>0.7943050062762175</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2042</v>
@@ -1288,19 +1288,19 @@
         <v>1753645</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1721317</v>
+        <v>1720654</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1785767</v>
+        <v>1783244</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8374132592658986</v>
+        <v>0.8374132592658987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8219760189565413</v>
+        <v>0.8216592428406694</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8527523392453145</v>
+        <v>0.851547503318874</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>116480</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95642</v>
+        <v>97530</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138293</v>
+        <v>137271</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1193525890550619</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09800134687838213</v>
+        <v>0.09993520169547659</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1417039149959987</v>
+        <v>0.1406567037475227</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>325</v>
@@ -1413,19 +1413,19 @@
         <v>226429</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>202728</v>
+        <v>202947</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>250210</v>
+        <v>251294</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2487285724456022</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2226935808616322</v>
+        <v>0.2229337217606699</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.274852057104336</v>
+        <v>0.2760422369753736</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>454</v>
@@ -1434,19 +1434,19 @@
         <v>342908</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>311918</v>
+        <v>312392</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>378917</v>
+        <v>374791</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1817914324696157</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1653618896574534</v>
+        <v>0.1656130635020942</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2008812575018731</v>
+        <v>0.198693805340113</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>859449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>837636</v>
+        <v>838658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>880287</v>
+        <v>878399</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8806474109449381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8582960850040012</v>
+        <v>0.8593432962524774</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9019986531216179</v>
+        <v>0.9000647983045235</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>999</v>
@@ -1484,19 +1484,19 @@
         <v>683916</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>660135</v>
+        <v>659051</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>707617</v>
+        <v>707398</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7512714275543977</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7251479428956639</v>
+        <v>0.7239577630246259</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7773064191383677</v>
+        <v>0.7770662782393302</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1817</v>
@@ -1505,19 +1505,19 @@
         <v>1543366</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1507357</v>
+        <v>1511483</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1574356</v>
+        <v>1573882</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8182085675303843</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.799118742498127</v>
+        <v>0.801306194659887</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8346381103425466</v>
+        <v>0.8343869364979057</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>489893</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>452700</v>
+        <v>450861</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>530755</v>
+        <v>529892</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1407218820990829</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1300381149291566</v>
+        <v>0.1295099013218</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1524595220831118</v>
+        <v>0.1522115466685176</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1624</v>
@@ -1630,19 +1630,19 @@
         <v>1038091</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>993499</v>
+        <v>986322</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1084367</v>
+        <v>1080609</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2807613279881351</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2687007867988636</v>
+        <v>0.2667597056434804</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2932769467153504</v>
+        <v>0.292260580554413</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2195</v>
@@ -1651,19 +1651,19 @@
         <v>1527984</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1455159</v>
+        <v>1467717</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1588866</v>
+        <v>1592583</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2128497141110572</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2027051076338783</v>
+        <v>0.2044543355245712</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2213305399109685</v>
+        <v>0.221848372332816</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2991391</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2950529</v>
+        <v>2951392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3028584</v>
+        <v>3030423</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8592781179009171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.847540477916888</v>
+        <v>0.847788453331482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8699618850708432</v>
+        <v>0.8704900986781997</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3684</v>
@@ -1701,19 +1701,19 @@
         <v>2659325</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2613049</v>
+        <v>2616807</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2703917</v>
+        <v>2711094</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7192386720118648</v>
+        <v>0.7192386720118649</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7067230532846497</v>
+        <v>0.7077394194455872</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7312992132011364</v>
+        <v>0.7332402943565195</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6454</v>
@@ -1722,19 +1722,19 @@
         <v>5650717</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5589835</v>
+        <v>5586118</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5723542</v>
+        <v>5710984</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7871502858889429</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7786694600890314</v>
+        <v>0.7781516276671838</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7972948923661217</v>
+        <v>0.7955456644754288</v>
       </c>
     </row>
     <row r="18">
